--- a/MicroBlog/移动端周报20190708~20190712.xlsx
+++ b/MicroBlog/移动端周报20190708~20190712.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maqianli/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maqianli/Desktop/MicroBlog/MicroBlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>下周工作计划</t>
     <rPh sb="0" eb="1">
@@ -313,6 +313,79 @@
   </si>
   <si>
     <t>3、bug修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、对已有代码优化 添加注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、对接产品需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、对接产品需求、新版本上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、替换百家云sdk、解决测试提出新问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、添加版本更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、修改个人中心 和 课程详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、配合测试调试新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、对已有代码优化 添加注释 +</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、解决测试提出新问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成百家云SDK升级(2.0.5)更新调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、进入教室，看回放，埋点更加精确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、重构PlayHelper类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、解决替换Androidx后发现的部分界面显示异常的难题，优化屏幕适配的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、搭建通过AOP对登录统一拦截操作的逻辑（待测试（目前发现无法满足kotlin代码需求）、待接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、通过HOOK模式实现集中式登录的框架（已测试，待接入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、计划接入登录统一拦截代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、计划接入集中式登录框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、实现按钮重复点击统一拦截，过滤（目前计划先支持Java，kotlin次之）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -741,27 +814,45 @@
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -925,32 +1016,50 @@
       <c r="A28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" ht="22" customHeight="1" x14ac:dyDescent="0.2">
